--- a/Main results/US/HLW vs DSGE.xlsx
+++ b/Main results/US/HLW vs DSGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\rstarBrookings2017\Main results\US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CCF191-111D-4834-B36F-864EB1D07096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AC30A128-72D5-4A06-B21F-A99ABF2807B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{719C608E-843D-412E-9C04-B7746638D163}"/>
   </bookViews>
@@ -51,8 +51,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -80,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3716,7 +3725,3567 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DSGE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="003399"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$260</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="259"/>
+                <c:pt idx="0">
+                  <c:v>22006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23467</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23650</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23923</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24288</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24380</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24562</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24837</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25111</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25203</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25293</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25384</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25476</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25568</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25658</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25749</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25841</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25933</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26206</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26389</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26572</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26754</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26845</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26937</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27029</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27119</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27210</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27302</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27394</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27484</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27575</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27759</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27850</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27941</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28033</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28215</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28306</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28490</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28580</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28671</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28763</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28855</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29036</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29128</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29220</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29311</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29402</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29494</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29586</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29676</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29767</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29859</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29951</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30041</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30132</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30224</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30316</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30406</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30497</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30589</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30681</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>30772</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30863</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>30955</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>31047</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>31137</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>31228</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31320</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>31412</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>31502</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>31593</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>31685</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31777</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>31867</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>31958</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32050</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>32142</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>32233</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>32324</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>32416</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>32508</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32598</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>32689</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>32781</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>32873</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>32963</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>33054</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>33146</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33238</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>33328</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>33419</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>33511</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>33603</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>33694</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>33785</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33877</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>33969</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>34059</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>34150</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34242</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34424</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34515</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34607</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34789</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34880</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34972</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35155</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35246</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35338</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35520</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35611</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35703</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35885</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36068</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36250</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>36341</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>36433</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36616</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36707</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36799</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36981</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>37164</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>37346</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>37437</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>37529</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>37711</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>37802</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>37894</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>38077</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>38168</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>38260</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>38442</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>38533</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>38625</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>38807</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>38898</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>38990</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>39172</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>39263</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>39355</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>39538</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>39629</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>39721</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>39903</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>39994</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40086</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>40451</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>40633</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>40816</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>40999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>45565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="259"/>
+                <c:pt idx="0">
+                  <c:v>2.1225176483352501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1802416715295898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0824734888174898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1641171455361601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.21958849040172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2331560923585898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3237401717416302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4346177177592998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5530773666300202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5552088993946498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6418809022493099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7131580111662399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8205991246614799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.91095486880362</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.98383874903171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.06727214301615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1618900031808499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2954319616303702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3057024717835399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.33676996150664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3891256235999498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4244043740402801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4200336464257401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4382933394911701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3958673622309901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1901491384367602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0772123027247398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9288631642335998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.91908718529867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9590873510726499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8674774316828899</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8480173108516902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6469695842247898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5451259459431501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4557130812136498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4829200042553299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5071229850696399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3441909630894102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2687759431563101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.26052758561198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9560292914822599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.98411292964334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.60315258368753</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4085674166936399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.51908627412046</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4341117085545201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3853472940429401</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.41211500589365</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5853115115653</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6697234234626399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.65859365943603</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.62007154361187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.18729843232247</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1002876814425702</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0680211133120201</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.97303465847502</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0476569985990798</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.94326237913984</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.69480432891897</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2028895307341101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.28284138403241</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.54930320556026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75695720969713</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.72325243965911</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.79083990829936</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9719724231239499</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0290047559852198</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8966780130903</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0968271188422398</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2017541233178299</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2691444102348401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.3734955532180102</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5048565541622199</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4850400096262901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4865707793907998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.46743250390145</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.4435910321810801</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2450371876948001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2824729752170501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2046221668882899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0919829612791001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3901642362295199</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6490308490924701</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4667207465860399</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.68780452632597</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.81485873947052</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2087720399199999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0321341542340301</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0739982328797599</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2319543065174798</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9617811527832201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5418693579574101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9801876032294301</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3098638336281501</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.6085876374825299</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7132453558636498</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8124551345507101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.06562874884033</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.7932642360039202</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6329559473118098</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.1476445011019201</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.89885974071488</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.9608760922481001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.70000404078267</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.5210646005716399</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1018949056924399</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.02242279901954</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.06499359917742</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2377084171204702</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5178942745725701</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.5802829262464302</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.34429714730955</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.42407272447225</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.5335730993321399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5727190347701701</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.83642697956991</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.8495812139295098</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.62381730191886</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.48653256767368</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.3274473037464798</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.7295774876929002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.6755745188924398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.65365410396765</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.3588313832294698</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.3983033023070099</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.5992424600562098</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.5280236238852698</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.3915865247148602</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.7183001820135599</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.6945836718762801</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.4583672554565301</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.4700751673897199</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.3096844495476598</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.2063124707108499</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3083212403481999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.6039726092728901</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.7296342825601201</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.8384048068586498</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.8601159226305</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.8802375749040698</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.88289564616385</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.6512562599954799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.69340711408891</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.6851971317182199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.7954337464994898</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.9792585294281202</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.03133407083646</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.01119502548796</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.1174304007640901</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.16633711977126</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.05497478925601</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.1608283720068302</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.1439994380342799</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.1455347989126001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.8945760465170101</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.76898652480895</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.0257319332197699</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.9173520580763599</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.8035302976747398</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.8788212049191602</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7309332100483599</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.2922056432109201</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.1772448241543301</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.9696124223949201</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.99330889852898</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.01333000908829</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.7501337942213899</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.75177467043602</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.06980601090613</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.97448522426799</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.6762318780593699</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.5763165377775901</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.7324788143404399</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.97565829206984</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.1789535675946099</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.2978449430409</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.2105527311635398</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.3312033029062298</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.2277959430297898</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.20234431938005</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.2546354221234801</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.0418963542006798</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.06591179078975</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.0176592458933902</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0725791978213901</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.1421419999646898</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.0358418078549501</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.1323444427081801</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.3236517374380501</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.2230994974320599</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9867347105998301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.80888273060934</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.4748182307694899</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.4899847478553101</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.3239481766597601</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.29036492333229003</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.42314534647928198</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.75561602860910704</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.83321308316703702</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99492392769609705</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.73687522149625595</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.17913464630650799</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.3080588973806603E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.16128407757362401</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.370640428393056</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.112405988647777</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.59475999346999497</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.73792049134147997</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.54576027977008901</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.78013062696024404</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.68661593946328503</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.562243472296313</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.62251381277351303</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.46987281400424802</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-0.47538347886753302</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.47254925190418001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.34831675051541</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.32384286689481601</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.34110562688928298</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.43209281196274602</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.415511317795835</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.32727349604713202</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.51524401310192003</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.49869408634574303</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-0.63644519372179198</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.423522015635942</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.29746846064687499</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-2.0830236054087899E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.13333058511538501</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.20683640678707199</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.38112135294657801</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.56123293602535196</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.69825001440263701</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.60505938829372097</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.69012347283920605</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.61849045120092305</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.61082106715884499</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.55690202979300296</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.52015310762709099</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.67897807777200103</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.39690136816482102</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.11632237237338899</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.58427764285123995</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.81324968929861596</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.0200348663230201</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.0456609286694001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.99445595737449</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.97879593353329097</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.90818824824928202</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.78689518570044203</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.879319325419886</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.80809775775531001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.15911695282121</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.17503737289429</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.43373793709148</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.4066985487317101</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.58646939738875</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.5211676419998399</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.39161256663705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B714-41C4-8466-1075A86567BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HLW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$260</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="259"/>
+                <c:pt idx="0">
+                  <c:v>22006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23467</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23650</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23923</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24288</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24380</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24562</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24837</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25111</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25203</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25293</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25384</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25476</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25568</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25658</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25749</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25841</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25933</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26206</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26389</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26572</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26754</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26845</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26937</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27029</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27119</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27210</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27302</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27394</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27484</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27575</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27759</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27850</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27941</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28033</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28215</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28306</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28490</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28580</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28671</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28763</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28855</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29036</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29128</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29220</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29311</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29402</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29494</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29586</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29676</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29767</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29859</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29951</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30041</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30132</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30224</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30316</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30406</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30497</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30589</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30681</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>30772</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30863</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>30955</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>31047</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>31137</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>31228</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31320</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>31412</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>31502</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>31593</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>31685</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31777</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>31867</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>31958</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32050</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>32142</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>32233</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>32324</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>32416</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>32508</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32598</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>32689</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>32781</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>32873</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>32963</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>33054</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>33146</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33238</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>33328</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>33419</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>33511</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>33603</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>33694</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>33785</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33877</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>33969</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>34059</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>34150</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34242</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34424</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34515</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34607</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34789</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34880</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34972</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35155</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35246</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35338</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35520</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35611</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35703</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35885</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36068</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36250</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>36341</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>36433</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36616</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36707</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36799</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36981</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>37164</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>37346</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>37437</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>37529</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>37711</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>37802</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>37894</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>38077</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>38168</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>38260</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>38442</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>38533</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>38625</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>38807</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>38898</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>38990</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>39172</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>39263</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>39355</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>39538</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>39629</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>39721</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>39903</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>39994</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40086</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>40451</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>40633</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>40816</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>40999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>45565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="259"/>
+                <c:pt idx="4">
+                  <c:v>5.0582000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2343000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0892999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6002000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0556999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0427</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0095999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3141999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0593000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2610999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3556999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1177000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4417999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6731999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8726000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0876999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8524000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8254000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7907000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6078000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6534000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6120999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9203000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8303000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8468</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1505999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1887999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2327000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0110999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8671000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5750999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.843</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7147999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7747000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9965000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.0244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7475999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8696000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6467999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.5903</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.4260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9636999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.8574000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9670999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.9940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1564000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8908</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.8178999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7879</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8456999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9668999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.0893000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7887</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.6991000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.3668</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.2843</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.3912</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1046</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.2473000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9076</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.9567000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.5981999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.2254</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4748000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.7766000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.8144999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.7233999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.8300999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.8557999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.1755</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2442000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.3843999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.2858000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1899000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.4891000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.3736999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.5352999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.3235999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.3843000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.1781999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.1937000000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1579000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.1328999999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.1168</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.3163999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.1842000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.3797999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.3452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.4390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.4681000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.3706999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.2921999999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.2509000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.4746999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.4344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.3203</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.8873000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.6589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.7389000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.7648999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.6351</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.6833</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.6741000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.5510999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.5756999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.4075000000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.3784999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.2195</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.2808000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.2225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.3793000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.2519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.2843</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.2023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.1547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.1972999999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.2534999999999998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.2551999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4944000000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.5091999999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.6417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.5598000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.8349000000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.8180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.8801000000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.9561000000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.1419000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.3187000000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.2949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.339</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.4232</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.6105999999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.512</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.6337000000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.5021</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.5133999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.3754</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.0815000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.1089000000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.0741999999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.0914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.9615</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.7105000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.5768</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.5514000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.7544</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.7616000000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.6796000000000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.6484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.5333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.585</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.5354000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.4691000000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.5074999999999998</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.6558000000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.6863000000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.5074999999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.5127999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.5697000000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.4662000000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.4807999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.5859000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.2574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.1553</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.8768</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.0256000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.81850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.96789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.9385</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.181</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.0001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.87670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.8508</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.68869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.65529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.7611</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.93089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.80059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.65239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.63539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.72119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.60680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.7611</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.85340000000000005</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.58809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.85219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.96130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.87280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.90959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.0981000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.0644</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.99809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.1644000000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.2579</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.2848999999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.2412000000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.2751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.1967000000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.2334000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.4202999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.5551999999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.5435000000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.4793000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.4503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.7172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.7230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.6860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.6540999999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.7138</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.6973</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.8184</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.9104000000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.9103000000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.1785999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.5960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.7357</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.7048000000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.6772</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.5649</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.4338</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.2996000000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.3835</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.3599000000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.2954000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B714-41C4-8466-1075A86567BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="789754432"/>
+        <c:axId val="789754912"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="789754432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="36220"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:ea typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:ea typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789754912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="789754912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C8C8C8"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:ea typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Natural Rate of Interest (r*), %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:ea typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789754432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:extLst>
+      <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+        <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:round/>
+        </a14:hiddenLine>
+      </a:ext>
+    </a:extLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4272,6 +7841,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4305,6 +8390,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>150934</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160094</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA853ECE-4D5F-44C7-9D94-B72AFC7A384D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4631,10 +8754,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7C81C-DD87-49FE-829F-8B500F099E32}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:X260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23:U28"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,7 +8765,7 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +8776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>22006</v>
       </c>
@@ -4661,7 +8784,7 @@
         <v>2.1225176483352501</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>22097</v>
       </c>
@@ -4669,7 +8792,7 @@
         <v>2.1802416715295898</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>22189</v>
       </c>
@@ -4677,7 +8800,7 @@
         <v>2.0824734888174898</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22281</v>
       </c>
@@ -4685,7 +8808,7 @@
         <v>2.1641171455361601</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22371</v>
       </c>
@@ -4700,7 +8823,7 @@
         <v>8.0577153024238282</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>22462</v>
       </c>
@@ -4715,7 +8838,7 @@
         <v>9.2406509828245973</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>22554</v>
       </c>
@@ -4730,7 +8853,7 @@
         <v>8.509238041638751</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22646</v>
       </c>
@@ -4745,7 +8868,7 @@
         <v>7.8382208814924965</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22736</v>
       </c>
@@ -4760,7 +8883,7 @@
         <v>6.4324252460181537</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22827</v>
       </c>
@@ -4775,7 +8898,7 @@
         <v>4.1819886015550818</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>22919</v>
       </c>
@@ -4789,8 +8912,9 @@
         <f t="shared" si="0"/>
         <v>3.4129573227339738</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>23011</v>
       </c>
@@ -4805,7 +8929,7 @@
         <v>1.8024189917817077</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>23101</v>
       </c>
@@ -4820,7 +8944,7 @@
         <v>1.493530549503177</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>23192</v>
       </c>
@@ -4835,7 +8959,7 @@
         <v>1.2070211243015108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23284</v>
       </c>

--- a/Main results/US/HLW vs DSGE.xlsx
+++ b/Main results/US/HLW vs DSGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\rstarBrookings2017\Main results\US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{AC30A128-72D5-4A06-B21F-A99ABF2807B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CBDB66-E9A7-4E8C-8320-B6BAF715ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{719C608E-843D-412E-9C04-B7746638D163}"/>
   </bookViews>
